--- a/study PYTHON/test_voca.xlsx
+++ b/study PYTHON/test_voca.xlsx
@@ -493,15 +493,15 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="21" customWidth="1" min="1" max="1"/>
+    <col width="22" customWidth="1" min="1" max="1"/>
     <col width="20" customWidth="1" min="2" max="2"/>
-    <col width="25" customWidth="1" min="3" max="3"/>
+    <col width="26" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="4" t="inlineStr">
         <is>
-          <t>reservation</t>
+          <t>compulsory</t>
         </is>
       </c>
       <c r="B1" s="5" t="inlineStr">
@@ -511,14 +511,14 @@
       </c>
       <c r="C1" s="11" t="inlineStr">
         <is>
-          <t>예약</t>
+          <t>의무적인</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="4" t="inlineStr">
         <is>
-          <t>redundant</t>
+          <t>charge</t>
         </is>
       </c>
       <c r="B2" s="5" t="inlineStr">
@@ -528,14 +528,14 @@
       </c>
       <c r="C2" s="11" t="inlineStr">
         <is>
-          <t>말이 많은, 장황한</t>
+          <t>범죄 혐의로 기소하다</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="inlineStr">
         <is>
-          <t>ubiquitous</t>
+          <t>obligatory</t>
         </is>
       </c>
       <c r="B3" s="5" t="inlineStr">
@@ -545,14 +545,14 @@
       </c>
       <c r="C3" s="11" t="inlineStr">
         <is>
-          <t>어디에나 존재하는</t>
+          <t>의무적인</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="inlineStr">
         <is>
-          <t>confine</t>
+          <t>apprehend</t>
         </is>
       </c>
       <c r="B4" s="5" t="inlineStr">
@@ -562,14 +562,14 @@
       </c>
       <c r="C4" s="11" t="inlineStr">
         <is>
-          <t>제한하다, 구금하다</t>
+          <t>이해하다, 체포하다, 염려하다</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>erode</t>
+          <t>extinct</t>
         </is>
       </c>
       <c r="B5" s="5" t="inlineStr">
@@ -579,14 +579,14 @@
       </c>
       <c r="C5" s="11" t="inlineStr">
         <is>
-          <t>조금씩 침식하다</t>
+          <t>멸종된</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="inlineStr">
         <is>
-          <t>enigma</t>
+          <t>attribute</t>
         </is>
       </c>
       <c r="B6" s="5" t="inlineStr">
@@ -596,14 +596,14 @@
       </c>
       <c r="C6" s="11" t="inlineStr">
         <is>
-          <t>수수께끼</t>
+          <t>특성, ~탓으로 돌리다</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="inlineStr">
         <is>
-          <t>decline</t>
+          <t>notorious</t>
         </is>
       </c>
       <c r="B7" s="5" t="inlineStr">
@@ -613,14 +613,14 @@
       </c>
       <c r="C7" s="11" t="inlineStr">
         <is>
-          <t>거절하다</t>
+          <t>악명 높은</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="inlineStr">
         <is>
-          <t>emit</t>
+          <t>reluctant</t>
         </is>
       </c>
       <c r="B8" s="5" t="inlineStr">
@@ -630,14 +630,14 @@
       </c>
       <c r="C8" s="11" t="inlineStr">
         <is>
-          <t>내뿜다</t>
+          <t>마지못해 하는</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="inlineStr">
         <is>
-          <t>aggravate</t>
+          <t>repel</t>
         </is>
       </c>
       <c r="B9" s="5" t="inlineStr">
@@ -647,14 +647,14 @@
       </c>
       <c r="C9" s="11" t="inlineStr">
         <is>
-          <t>악화시키다, 화나게 하다</t>
+          <t>물리치다</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="inlineStr">
         <is>
-          <t>urgent</t>
+          <t>settle</t>
         </is>
       </c>
       <c r="B10" s="5" t="inlineStr">
@@ -664,14 +664,14 @@
       </c>
       <c r="C10" s="11" t="inlineStr">
         <is>
-          <t>촉박한</t>
+          <t>정착하다</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="inlineStr">
         <is>
-          <t>reduce</t>
+          <t>suppress</t>
         </is>
       </c>
       <c r="B11" s="5" t="inlineStr">
@@ -681,14 +681,14 @@
       </c>
       <c r="C11" s="11" t="inlineStr">
         <is>
-          <t>줄이다, 삭감하다</t>
+          <t>억압하다</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="inlineStr">
         <is>
-          <t>dwindle</t>
+          <t>gullible</t>
         </is>
       </c>
       <c r="B12" s="5" t="inlineStr">
@@ -698,14 +698,14 @@
       </c>
       <c r="C12" s="11" t="inlineStr">
         <is>
-          <t>차츰 작아지다, 줄다</t>
+          <t>잘 속는</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="4" t="inlineStr">
         <is>
-          <t>deteriorate</t>
+          <t>compose</t>
         </is>
       </c>
       <c r="B13" s="5" t="inlineStr">
@@ -715,14 +715,14 @@
       </c>
       <c r="C13" s="11" t="inlineStr">
         <is>
-          <t>악화시키다, 나빠지다</t>
+          <t>작곡하다</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="inlineStr">
         <is>
-          <t>fertile</t>
+          <t>abuse</t>
         </is>
       </c>
       <c r="B14" s="5" t="inlineStr">
@@ -732,14 +732,14 @@
       </c>
       <c r="C14" s="11" t="inlineStr">
         <is>
-          <t>비옥한</t>
+          <t>학대하다</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="4" t="inlineStr">
         <is>
-          <t>available</t>
+          <t>inactive</t>
         </is>
       </c>
       <c r="B15" s="5" t="inlineStr">
@@ -749,14 +749,14 @@
       </c>
       <c r="C15" s="11" t="inlineStr">
         <is>
-          <t>이용할수 있는</t>
+          <t>활동하지 않는</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="inlineStr">
         <is>
-          <t>ambivalent</t>
+          <t>oblivious</t>
         </is>
       </c>
       <c r="B16" s="5" t="inlineStr">
@@ -766,14 +766,14 @@
       </c>
       <c r="C16" s="11" t="inlineStr">
         <is>
-          <t>어떻게 할지 결정하기 애매한</t>
+          <t>의식하지 못하는</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="4" t="inlineStr">
         <is>
-          <t>deter</t>
+          <t>improvise</t>
         </is>
       </c>
       <c r="B17" s="5" t="inlineStr">
@@ -783,14 +783,14 @@
       </c>
       <c r="C17" s="11" t="inlineStr">
         <is>
-          <t>방해하다</t>
+          <t>즉석에서 하다</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="4" t="inlineStr">
         <is>
-          <t>deficiency</t>
+          <t>immune</t>
         </is>
       </c>
       <c r="B18" s="5" t="inlineStr">
@@ -800,14 +800,14 @@
       </c>
       <c r="C18" s="11" t="inlineStr">
         <is>
-          <t>부족, 적자</t>
+          <t>면역성의</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="4" t="inlineStr">
         <is>
-          <t>increment</t>
+          <t>restricted</t>
         </is>
       </c>
       <c r="B19" s="5" t="inlineStr">
@@ -817,14 +817,14 @@
       </c>
       <c r="C19" s="11" t="inlineStr">
         <is>
-          <t>증가, 증대</t>
+          <t>제한된</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="inlineStr">
         <is>
-          <t>irritate</t>
+          <t>specific</t>
         </is>
       </c>
       <c r="B20" s="5" t="inlineStr">
@@ -834,14 +834,14 @@
       </c>
       <c r="C20" s="11" t="inlineStr">
         <is>
-          <t>짜증나게 하다</t>
+          <t>구체적인, 명세서</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="4" t="inlineStr">
         <is>
-          <t>curtail</t>
+          <t>dismiss</t>
         </is>
       </c>
       <c r="B21" s="5" t="inlineStr">
@@ -851,14 +851,14 @@
       </c>
       <c r="C21" s="11" t="inlineStr">
         <is>
-          <t>줄이다</t>
+          <t>해고하다</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="4" t="inlineStr">
         <is>
-          <t>nervous</t>
+          <t>ostentatious</t>
         </is>
       </c>
       <c r="B22" s="5" t="inlineStr">
@@ -868,14 +868,14 @@
       </c>
       <c r="C22" s="11" t="inlineStr">
         <is>
-          <t>초조한</t>
+          <t>과시하는</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="4" t="inlineStr">
         <is>
-          <t>abundant</t>
+          <t>sedentary</t>
         </is>
       </c>
       <c r="B23" s="5" t="inlineStr">
@@ -885,14 +885,14 @@
       </c>
       <c r="C23" s="11" t="inlineStr">
         <is>
-          <t>풍족한</t>
+          <t>주로 앉아 있는</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="4" t="inlineStr">
         <is>
-          <t>contentious</t>
+          <t>fallacious</t>
         </is>
       </c>
       <c r="B24" s="5" t="inlineStr">
@@ -902,14 +902,14 @@
       </c>
       <c r="C24" s="11" t="inlineStr">
         <is>
-          <t>논쟁하기 좋아하는</t>
+          <t>허위의</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="4" t="inlineStr">
         <is>
-          <t>impede</t>
+          <t>relinquish</t>
         </is>
       </c>
       <c r="B25" s="5" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="C25" s="11" t="inlineStr">
         <is>
-          <t>늦추다, 방해하다</t>
+          <t>그만두다</t>
         </is>
       </c>
     </row>

--- a/study PYTHON/test_voca.xlsx
+++ b/study PYTHON/test_voca.xlsx
@@ -493,15 +493,15 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="22" customWidth="1" min="1" max="1"/>
+    <col width="23" customWidth="1" min="1" max="1"/>
     <col width="20" customWidth="1" min="2" max="2"/>
-    <col width="26" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="4" t="inlineStr">
         <is>
-          <t>compulsory</t>
+          <t>disseminate</t>
         </is>
       </c>
       <c r="B1" s="5" t="inlineStr">
@@ -511,14 +511,14 @@
       </c>
       <c r="C1" s="11" t="inlineStr">
         <is>
-          <t>의무적인</t>
+          <t>흩뿌리다</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="4" t="inlineStr">
         <is>
-          <t>charge</t>
+          <t>conspicuous</t>
         </is>
       </c>
       <c r="B2" s="5" t="inlineStr">
@@ -528,14 +528,14 @@
       </c>
       <c r="C2" s="11" t="inlineStr">
         <is>
-          <t>범죄 혐의로 기소하다</t>
+          <t>두드러진</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="inlineStr">
         <is>
-          <t>obligatory</t>
+          <t>austere</t>
         </is>
       </c>
       <c r="B3" s="5" t="inlineStr">
@@ -545,14 +545,14 @@
       </c>
       <c r="C3" s="11" t="inlineStr">
         <is>
-          <t>의무적인</t>
+          <t>검소한</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="inlineStr">
         <is>
-          <t>apprehend</t>
+          <t>audacious</t>
         </is>
       </c>
       <c r="B4" s="5" t="inlineStr">
@@ -562,14 +562,14 @@
       </c>
       <c r="C4" s="11" t="inlineStr">
         <is>
-          <t>이해하다, 체포하다, 염려하다</t>
+          <t>대담한</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>extinct</t>
+          <t>defer</t>
         </is>
       </c>
       <c r="B5" s="5" t="inlineStr">
@@ -579,14 +579,14 @@
       </c>
       <c r="C5" s="11" t="inlineStr">
         <is>
-          <t>멸종된</t>
+          <t>경의를 표하다</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="inlineStr">
         <is>
-          <t>attribute</t>
+          <t>mundane</t>
         </is>
       </c>
       <c r="B6" s="5" t="inlineStr">
@@ -596,14 +596,14 @@
       </c>
       <c r="C6" s="11" t="inlineStr">
         <is>
-          <t>특성, ~탓으로 돌리다</t>
+          <t>일상적인</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="inlineStr">
         <is>
-          <t>notorious</t>
+          <t>yield</t>
         </is>
       </c>
       <c r="B7" s="5" t="inlineStr">
@@ -613,14 +613,14 @@
       </c>
       <c r="C7" s="11" t="inlineStr">
         <is>
-          <t>악명 높은</t>
+          <t>양보</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="inlineStr">
         <is>
-          <t>reluctant</t>
+          <t>frugal</t>
         </is>
       </c>
       <c r="B8" s="5" t="inlineStr">
@@ -630,14 +630,14 @@
       </c>
       <c r="C8" s="11" t="inlineStr">
         <is>
-          <t>마지못해 하는</t>
+          <t>절약하는</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="inlineStr">
         <is>
-          <t>repel</t>
+          <t>exceed</t>
         </is>
       </c>
       <c r="B9" s="5" t="inlineStr">
@@ -647,14 +647,14 @@
       </c>
       <c r="C9" s="11" t="inlineStr">
         <is>
-          <t>물리치다</t>
+          <t>한도를 초과하다</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="inlineStr">
         <is>
-          <t>settle</t>
+          <t>affluent</t>
         </is>
       </c>
       <c r="B10" s="5" t="inlineStr">
@@ -664,14 +664,14 @@
       </c>
       <c r="C10" s="11" t="inlineStr">
         <is>
-          <t>정착하다</t>
+          <t>부유한</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="inlineStr">
         <is>
-          <t>suppress</t>
+          <t>wane</t>
         </is>
       </c>
       <c r="B11" s="5" t="inlineStr">
@@ -681,14 +681,14 @@
       </c>
       <c r="C11" s="11" t="inlineStr">
         <is>
-          <t>억압하다</t>
+          <t>적어지다</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="inlineStr">
         <is>
-          <t>gullible</t>
+          <t>prevalent</t>
         </is>
       </c>
       <c r="B12" s="5" t="inlineStr">
@@ -698,14 +698,14 @@
       </c>
       <c r="C12" s="11" t="inlineStr">
         <is>
-          <t>잘 속는</t>
+          <t>유행하는</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="4" t="inlineStr">
         <is>
-          <t>compose</t>
+          <t>chronological</t>
         </is>
       </c>
       <c r="B13" s="5" t="inlineStr">
@@ -715,14 +715,14 @@
       </c>
       <c r="C13" s="11" t="inlineStr">
         <is>
-          <t>작곡하다</t>
+          <t>연대순의</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="inlineStr">
         <is>
-          <t>abuse</t>
+          <t>flatter</t>
         </is>
       </c>
       <c r="B14" s="5" t="inlineStr">
@@ -732,14 +732,14 @@
       </c>
       <c r="C14" s="11" t="inlineStr">
         <is>
-          <t>학대하다</t>
+          <t>치켜세우다</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="4" t="inlineStr">
         <is>
-          <t>inactive</t>
+          <t>confirm</t>
         </is>
       </c>
       <c r="B15" s="5" t="inlineStr">
@@ -749,14 +749,14 @@
       </c>
       <c r="C15" s="11" t="inlineStr">
         <is>
-          <t>활동하지 않는</t>
+          <t>확증하다, 승인하다</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="inlineStr">
         <is>
-          <t>oblivious</t>
+          <t>eligible</t>
         </is>
       </c>
       <c r="B16" s="5" t="inlineStr">
@@ -766,14 +766,14 @@
       </c>
       <c r="C16" s="11" t="inlineStr">
         <is>
-          <t>의식하지 못하는</t>
+          <t>적격의</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="4" t="inlineStr">
         <is>
-          <t>improvise</t>
+          <t>impair</t>
         </is>
       </c>
       <c r="B17" s="5" t="inlineStr">
@@ -783,14 +783,14 @@
       </c>
       <c r="C17" s="11" t="inlineStr">
         <is>
-          <t>즉석에서 하다</t>
+          <t>해로운</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="4" t="inlineStr">
         <is>
-          <t>immune</t>
+          <t>languid</t>
         </is>
       </c>
       <c r="B18" s="5" t="inlineStr">
@@ -800,14 +800,14 @@
       </c>
       <c r="C18" s="11" t="inlineStr">
         <is>
-          <t>면역성의</t>
+          <t>축 늘어진</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="4" t="inlineStr">
         <is>
-          <t>restricted</t>
+          <t>implement</t>
         </is>
       </c>
       <c r="B19" s="5" t="inlineStr">
@@ -817,14 +817,14 @@
       </c>
       <c r="C19" s="11" t="inlineStr">
         <is>
-          <t>제한된</t>
+          <t>도구</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="inlineStr">
         <is>
-          <t>specific</t>
+          <t>affable</t>
         </is>
       </c>
       <c r="B20" s="5" t="inlineStr">
@@ -834,14 +834,14 @@
       </c>
       <c r="C20" s="11" t="inlineStr">
         <is>
-          <t>구체적인, 명세서</t>
+          <t>붙임성 있는</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="4" t="inlineStr">
         <is>
-          <t>dismiss</t>
+          <t>gratify</t>
         </is>
       </c>
       <c r="B21" s="5" t="inlineStr">
@@ -851,14 +851,14 @@
       </c>
       <c r="C21" s="11" t="inlineStr">
         <is>
-          <t>해고하다</t>
+          <t>만족시키다</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="4" t="inlineStr">
         <is>
-          <t>ostentatious</t>
+          <t>bolster</t>
         </is>
       </c>
       <c r="B22" s="5" t="inlineStr">
@@ -868,14 +868,14 @@
       </c>
       <c r="C22" s="11" t="inlineStr">
         <is>
-          <t>과시하는</t>
+          <t>보강하다</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="4" t="inlineStr">
         <is>
-          <t>sedentary</t>
+          <t>concern</t>
         </is>
       </c>
       <c r="B23" s="5" t="inlineStr">
@@ -885,14 +885,14 @@
       </c>
       <c r="C23" s="11" t="inlineStr">
         <is>
-          <t>주로 앉아 있는</t>
+          <t>관여하다</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="4" t="inlineStr">
         <is>
-          <t>fallacious</t>
+          <t>plight</t>
         </is>
       </c>
       <c r="B24" s="5" t="inlineStr">
@@ -902,14 +902,14 @@
       </c>
       <c r="C24" s="11" t="inlineStr">
         <is>
-          <t>허위의</t>
+          <t>곤경, 궁지</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="4" t="inlineStr">
         <is>
-          <t>relinquish</t>
+          <t>proliferate</t>
         </is>
       </c>
       <c r="B25" s="5" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="C25" s="11" t="inlineStr">
         <is>
-          <t>그만두다</t>
+          <t>증식하다</t>
         </is>
       </c>
     </row>
